--- a/public/template-import/template-import-user-up.xlsx
+++ b/public/template-import/template-import-user-up.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FireRex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4423C1-AA5D-4815-84E0-4C3A785D0DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5856DD8-E67E-4B90-A456-844CF91FC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38B4CFFD-E634-42B7-AC8E-5B69B98C0271}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38B4CFFD-E634-42B7-AC8E-5B69B98C0271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nama</t>
   </si>
@@ -56,6 +55,12 @@
   </si>
   <si>
     <t>No Telepon</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Unit Kerja</t>
   </si>
 </sst>
 </file>
@@ -418,24 +423,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22D3DEA-C0A7-4D85-8495-1AF2F1238B2E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +464,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
